--- a/Documents/Project Plan.xlsx
+++ b/Documents/Project Plan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="44">
   <si>
     <t>TEMPLATE MODULE</t>
   </si>
@@ -664,6 +664,12 @@
       </rPr>
       <t>(Currently we use page generated with VS2010)</t>
     </r>
+  </si>
+  <si>
+    <t>png file generation</t>
+  </si>
+  <si>
+    <t>Image web api</t>
   </si>
 </sst>
 </file>
@@ -770,7 +776,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -796,6 +802,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -829,7 +841,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -871,6 +883,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -1176,8 +1189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1426,6 +1439,16 @@
       </c>
       <c r="F23" s="13" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
